--- a/biology/Botanique/Loasaceae/Loasaceae.xlsx
+++ b/biology/Botanique/Loasaceae/Loasaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Loasacées regroupe des plantes dicotylédones ; elle comprend 265 espèces réparties en 14 à 20 genres.
 </t>
@@ -511,11 +523,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le nom vient du genre type  Loasa dont on ne connait pas l'étymologie ; le mot est possiblement originaire d'un nom vernaculaire dans une langue sud‑américaine[1]. On peut cependant rapprocher ce nom de genre du toponyme Loxa (ville de l'Équateur), d'où a été rapporté une espèce de cette plante. Jussieu nous décrit ainsi la découverte : 
-« L'arrivée récente de MM Humboldt et Bonpland à Paris, après un voyage de quatre années dans l’Amérique méridionale, nous procure l’avantage d’ajouter une espèce nouvelle de Loasa à celles que nous avons déjà, et de compléter le caractère d'une autre. […] Il faut seulement annoncer ici, d’après eux, que les Loasa croissent dans les provinces de  Loxa et dans les Andes de Quindiu au royaume de la Nouvelle-Grenade, à la hauteurs de 500 à 700 toises (1000 à 1500 mètres), avec les quinquinas et les fougères en arbre[2]. »
+Le nom vient du genre type  Loasa dont on ne connait pas l'étymologie ; le mot est possiblement originaire d'un nom vernaculaire dans une langue sud‑américaine. On peut cependant rapprocher ce nom de genre du toponyme Loxa (ville de l'Équateur), d'où a été rapporté une espèce de cette plante. Jussieu nous décrit ainsi la découverte : 
+« L'arrivée récente de MM Humboldt et Bonpland à Paris, après un voyage de quatre années dans l’Amérique méridionale, nous procure l’avantage d’ajouter une espèce nouvelle de Loasa à celles que nous avons déjà, et de compléter le caractère d'une autre. […] Il faut seulement annoncer ici, d’après eux, que les Loasa croissent dans les provinces de  Loxa et dans les Andes de Quindiu au royaume de la Nouvelle-Grenade, à la hauteurs de 500 à 700 toises (1000 à 1500 mètres), avec les quinquinas et les fougères en arbre. »
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été décrite en 1804 par le botaniste français Antoine-Laurent de Jussieu.
-Dans classification classique de Cronquist (1981)[3] cette famille est assignée à l'ordre des Violales.
-En classification phylogénétique APG III (2009)[4] elles est dans celui des Cornales.
+Dans classification classique de Cronquist (1981) cette famille est assignée à l'ordre des Violales.
+En classification phylogénétique APG III (2009) elles est dans celui des Cornales.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ce sont le plus souvent des plantes herbacées annuelles ou pérennes, rarement des buissons ou de petits arbres, couverts de poils raides et parfois urticants, des régions tempérées, subtropicales ou tropicales, principalement originaires d'Amérique (quelques-unes d'Afrique et des îles Marquises). Les espèces du genre Mentzelia produisent de très belles fleurs jaunes parfumées qui s'ouvrent le soir.
@@ -609,9 +627,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (16 octobre 2016)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (16 octobre 2016) :
 Blumenbachia Schrad.
 Caiophora C.Presl
 Cevallia Lag.
@@ -627,7 +647,7 @@
 Schismocarpus S.F.Blake
 Sclerothrix C.Presl
 Scyphanthus Sweet
-Selon NCBI  (16 octobre 2016)[6] :
+Selon NCBI  (16 octobre 2016) :
 Aosa
 Blumenbachia
 Caiophora
@@ -648,7 +668,7 @@
 Schismocarpus
 Scyphanthus
 Xylopodia
-Selon DELTA Angio           (16 octobre 2016)[7] :
+Selon DELTA Angio           (16 octobre 2016) :
 Blumenbachia
 Caiophora
 Cevallia
@@ -691,9 +711,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (16 octobre 2016)[6] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (16 octobre 2016) :
 genre Aosa
 Aosa plumierii
 Aosa rostrata
